--- a/cache/zero_peaks_averaged.xlsx
+++ b/cache/zero_peaks_averaged.xlsx
@@ -74,22 +74,22 @@
     <t xml:space="preserve">24:0</t>
   </si>
   <si>
+    <t xml:space="preserve">H2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAIBE (STD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Squalane (STD)</t>
+  </si>
+  <si>
     <t xml:space="preserve">a-15:0</t>
   </si>
   <si>
-    <t xml:space="preserve">H2</t>
-  </si>
-  <si>
     <t xml:space="preserve">i-15:0</t>
   </si>
   <si>
     <t xml:space="preserve">i-17:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAIBE (STD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Squalane (STD)</t>
   </si>
   <si>
     <t xml:space="preserve">g</t>
@@ -717,17 +717,17 @@
       <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="C15" t="n">
-        <v>0.0134329044321861</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.0130905024712349</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-137.496639154032</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-159.484664835026</v>
+      <c r="C15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E15" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F15" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="16">
@@ -757,17 +757,17 @@
       <c r="B17" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.0158159403345039</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.0160786830616783</v>
-      </c>
-      <c r="E17" t="n">
-        <v>15.5372570977714</v>
-      </c>
-      <c r="F17" t="n">
-        <v>32.4107472597446</v>
+      <c r="C17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E17" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="18">
@@ -778,16 +778,16 @@
         <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0182656798078027</v>
+        <v>0.0134329044321861</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0112085046858729</v>
+        <v>0.0130905024712349</v>
       </c>
       <c r="E18" t="n">
-        <v>172.86309482598</v>
+        <v>-137.496639154032</v>
       </c>
       <c r="F18" t="n">
-        <v>-280.24580206368</v>
+        <v>-159.484664835026</v>
       </c>
     </row>
     <row r="19">
@@ -797,17 +797,17 @@
       <c r="B19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E19" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F19" t="e">
-        <v>#NUM!</v>
+      <c r="C19" t="n">
+        <v>0.0158159403345039</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0160786830616783</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.5372570977714</v>
+      </c>
+      <c r="F19" t="n">
+        <v>32.4107472597446</v>
       </c>
     </row>
     <row r="20">
@@ -817,17 +817,17 @@
       <c r="B20" t="s">
         <v>25</v>
       </c>
-      <c r="C20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E20" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#NUM!</v>
+      <c r="C20" t="n">
+        <v>0.0182656798078027</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0112085046858729</v>
+      </c>
+      <c r="E20" t="n">
+        <v>172.86309482598</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-280.24580206368</v>
       </c>
     </row>
     <row r="21">
@@ -904,7 +904,7 @@
         <v>0.0133907412421783</v>
       </c>
       <c r="E24" t="n">
-        <v>-115.504155220909</v>
+        <v>-115.50415522091</v>
       </c>
       <c r="F24" t="n">
         <v>-140.205128390665</v>
@@ -947,7 +947,7 @@
         <v>-61.4877618531839</v>
       </c>
       <c r="F26" t="n">
-        <v>-83.7570763090419</v>
+        <v>-83.757076309042</v>
       </c>
     </row>
     <row r="27">
@@ -1097,17 +1097,17 @@
       <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="C34" t="n">
-        <v>0.0140455705938639</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.0135155096443225</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-98.1538354903795</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-132.192897671149</v>
+      <c r="C34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E34" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="35">
@@ -1137,17 +1137,17 @@
       <c r="B36" t="s">
         <v>22</v>
       </c>
-      <c r="C36" t="n">
-        <v>0.0143423441118637</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.0139312510340533</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-79.0956951395388</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-105.495152832668</v>
+      <c r="C36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E36" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F36" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="37">
@@ -1155,19 +1155,19 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0149154251438747</v>
+        <v>0.0140455705938639</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0138113952854812</v>
+        <v>0.0135155096443225</v>
       </c>
       <c r="E37" t="n">
-        <v>-42.2933751031082</v>
+        <v>-98.1538354903795</v>
       </c>
       <c r="F37" t="n">
-        <v>-113.191975323733</v>
+        <v>-132.192897671149</v>
       </c>
     </row>
     <row r="38">
@@ -1175,19 +1175,19 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0154441089256433</v>
+        <v>0.0143423441118637</v>
       </c>
       <c r="D38" t="n">
-        <v>0.015257652796358</v>
+        <v>0.0139312510340533</v>
       </c>
       <c r="E38" t="n">
-        <v>-8.3417818385418</v>
+        <v>-79.0956951395388</v>
       </c>
       <c r="F38" t="n">
-        <v>-20.3157937175225</v>
+        <v>-105.495152832668</v>
       </c>
     </row>
     <row r="39">
@@ -1195,19 +1195,19 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D39" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E39" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F39" t="e">
-        <v>#NUM!</v>
+        <v>27</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.0149154251438747</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0138113952854812</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-42.2933751031082</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-113.191975323733</v>
       </c>
     </row>
     <row r="40">
@@ -1217,17 +1217,17 @@
       <c r="B40" t="s">
         <v>25</v>
       </c>
-      <c r="C40" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D40" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E40" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F40" t="e">
-        <v>#NUM!</v>
+      <c r="C40" t="n">
+        <v>0.0154441089256433</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.015257652796358</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-8.3417818385418</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-20.3157937175225</v>
       </c>
     </row>
     <row r="41">
@@ -1497,17 +1497,17 @@
       <c r="B54" t="s">
         <v>20</v>
       </c>
-      <c r="C54" t="n">
-        <v>0.0148301097424271</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.0130978080988916</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-47.7720086693586</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-159.010788486731</v>
+      <c r="C54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E54" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="55">
@@ -1537,17 +1537,17 @@
       <c r="B56" t="s">
         <v>22</v>
       </c>
-      <c r="C56" t="n">
-        <v>0.0153849824787375</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.0153304672477715</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-12.1388380875247</v>
-      </c>
-      <c r="F56" t="n">
-        <v>-15.6390570572091</v>
+      <c r="C56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="D56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="E56" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="57">
@@ -1555,19 +1555,19 @@
         <v>28</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0151862154897597</v>
+        <v>0.014830109742427</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0149376252209835</v>
+        <v>0.0130978080988916</v>
       </c>
       <c r="E57" t="n">
-        <v>-24.9033939927156</v>
+        <v>-47.7720086693586</v>
       </c>
       <c r="F57" t="n">
-        <v>-40.8672524498043</v>
+        <v>-159.010788486731</v>
       </c>
     </row>
     <row r="58">
@@ -1575,19 +1575,19 @@
         <v>28</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0174888846418306</v>
+        <v>0.0153849824787375</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0229636903686125</v>
+        <v>0.0153304672477715</v>
       </c>
       <c r="E58" t="n">
-        <v>122.975212632475</v>
+        <v>-12.1388380875247</v>
       </c>
       <c r="F58" t="n">
-        <v>474.639146253596</v>
+        <v>-15.6390570572091</v>
       </c>
     </row>
     <row r="59">
@@ -1595,19 +1595,19 @@
         <v>28</v>
       </c>
       <c r="B59" t="s">
-        <v>24</v>
-      </c>
-      <c r="C59" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D59" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E59" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F59" t="e">
-        <v>#NUM!</v>
+        <v>27</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0151862154897597</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.0149376252209835</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-24.9033939927156</v>
+      </c>
+      <c r="F59" t="n">
+        <v>-40.8672524498043</v>
       </c>
     </row>
     <row r="60">
@@ -1617,17 +1617,17 @@
       <c r="B60" t="s">
         <v>25</v>
       </c>
-      <c r="C60" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="D60" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E60" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="F60" t="e">
-        <v>#NUM!</v>
+      <c r="C60" t="n">
+        <v>0.0174888846418306</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.0229636903686125</v>
+      </c>
+      <c r="E60" t="n">
+        <v>122.975212632475</v>
+      </c>
+      <c r="F60" t="n">
+        <v>474.639146253596</v>
       </c>
     </row>
   </sheetData>
